--- a/QA_Automation/Invessence/TestCases/PROD/TestData_Invessence_PROD_OpenNewAccountVisitor.xlsx
+++ b/QA_Automation/Invessence/TestCases/PROD/TestData_Invessence_PROD_OpenNewAccountVisitor.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="117">
   <si>
     <t>TCID</t>
   </si>
@@ -235,12 +235,6 @@
     <t>ABC</t>
   </si>
   <si>
-    <t>BenificiaryFN</t>
-  </si>
-  <si>
-    <t>BenificiarylN</t>
-  </si>
-  <si>
     <t>Mother</t>
   </si>
   <si>
@@ -328,16 +322,55 @@
     <t>bbqa.user</t>
   </si>
   <si>
-    <t>http://uatbb.invessence.com:8080/getstarted.xhtml</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>http://buildingbenjamins.com//getstarted.xhtml</t>
   </si>
   <si>
     <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>http://uattcm.invessence.com:8080/getstarted.xhtml?rep=100</t>
+  </si>
+  <si>
+    <t>tcmintrepqa.user</t>
+  </si>
+  <si>
+    <t>tcm-logo.jpe</t>
+  </si>
+  <si>
+    <t>http://uattcm.invessence.com:8080/getstarted.xhtml?rep=200</t>
+  </si>
+  <si>
+    <t>tcmextrepqa.user</t>
+  </si>
+  <si>
+    <t>TCMRep100testfnameVisitor</t>
+  </si>
+  <si>
+    <t>TCMRep200testfnameVisitor</t>
+  </si>
+  <si>
+    <t>TCM_Rep100testlnameVisitorv</t>
+  </si>
+  <si>
+    <t>TCM_Rep200testlnameVisitor</t>
+  </si>
+  <si>
+    <t>BB_BenificiaryFN</t>
+  </si>
+  <si>
+    <t>BB_BenificiarylN</t>
+  </si>
+  <si>
+    <t>TCMREP100_BenificiaryFN</t>
+  </si>
+  <si>
+    <t>TCMREP100_BenificiarylN</t>
+  </si>
+  <si>
+    <t>TCMREP200_BenificiaryFN</t>
+  </si>
+  <si>
+    <t>TCMREP200_BenificiarylN</t>
   </si>
 </sst>
 </file>
@@ -382,13 +415,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -704,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AW5" sqref="AW5"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AY11" sqref="AY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,8 +759,9 @@
     <col min="11" max="11" width="25.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="13.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="13.85546875" style="3" customWidth="1"/>
     <col min="19" max="19" width="33.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="23" width="13.85546875" style="3" customWidth="1"/>
     <col min="24" max="24" width="23.42578125" style="3" customWidth="1"/>
@@ -864,13 +901,13 @@
         <v>56</v>
       </c>
       <c r="AR1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="AU1" s="3" t="s">
         <v>57</v>
@@ -882,19 +919,19 @@
         <v>59</v>
       </c>
       <c r="AX1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AZ1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="BB1" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BC1" t="s">
         <v>8</v>
@@ -908,13 +945,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -944,10 +981,10 @@
         <v>26</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>60</v>
@@ -959,7 +996,7 @@
         <v>62</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>63</v>
@@ -989,10 +1026,10 @@
         <v>69</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AE2" s="4" t="s">
         <v>60</v>
@@ -1001,55 +1038,55 @@
         <v>61</v>
       </c>
       <c r="AG2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="AR2" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AS2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="AT2" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AX2" s="4"/>
       <c r="AY2" s="4"/>
@@ -1060,7 +1097,7 @@
         <v>9</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BC2" t="s">
         <v>9</v>
@@ -1077,14 +1114,14 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>101</v>
+      <c r="D3" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -1108,10 +1145,10 @@
         <v>26</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>60</v>
@@ -1123,7 +1160,7 @@
         <v>62</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>63</v>
@@ -1153,10 +1190,10 @@
         <v>69</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="AE3" s="4" t="s">
         <v>60</v>
@@ -1165,55 +1202,55 @@
         <v>61</v>
       </c>
       <c r="AG3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="AR3" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AS3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="AT3" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AV3" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
@@ -1224,12 +1261,176 @@
         <v>9</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="BC3" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="BD3" s="2"/>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>2502</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1237,9 +1438,11 @@
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="S3" r:id="rId3" display="d@gmail.com"/>
     <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="S4" r:id="rId5" display="d@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
